--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_100/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_General.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.7989346261679316</v>
+        <v>-1.382148465108401</v>
       </c>
       <c r="D2">
-        <v>0.4243659742808688</v>
+        <v>0.1759395920405216</v>
       </c>
       <c r="E2">
         <v>2.495838512993291</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.472964210127492</v>
+        <v>0.4647498477817668</v>
       </c>
       <c r="D3">
-        <v>0.6362591989837978</v>
+        <v>0.645073258614882</v>
       </c>
       <c r="E3">
         <v>2.495838512993291</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.5916260268567223</v>
+        <v>0.7980702673087269</v>
       </c>
       <c r="D4">
-        <v>0.5541275815209796</v>
+        <v>0.4303688737379554</v>
       </c>
       <c r="E4">
         <v>2.495838512993291</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>1.146734498446487</v>
+        <v>1.627499632067555</v>
       </c>
       <c r="D5">
-        <v>0.2515458153502887</v>
+        <v>0.1128643614560494</v>
       </c>
       <c r="E5">
         <v>2.495838512993291</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>1.244797529073788</v>
+        <v>1.2174976765984</v>
       </c>
       <c r="D6">
-        <v>0.2132640736134475</v>
+        <v>0.2317976813596569</v>
       </c>
       <c r="E6">
         <v>2.609130550598118</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1.049414767903362</v>
+        <v>1.428292060967515</v>
       </c>
       <c r="D7">
-        <v>0.2940375916721938</v>
+        <v>0.1623301767175664</v>
       </c>
       <c r="E7">
         <v>2.609130550598118</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>1.467802303224283</v>
+        <v>2.030197382656884</v>
       </c>
       <c r="D8">
-        <v>0.1422203448114192</v>
+        <v>0.0502184890067241</v>
       </c>
       <c r="E8">
         <v>2.609130550598118</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.08192929361018314</v>
+        <v>0.08232161111900922</v>
       </c>
       <c r="D9">
-        <v>0.9347061937643166</v>
+        <v>0.9348737076812657</v>
       </c>
       <c r="E9">
         <v>2.445984031525772</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.8717490263823631</v>
+        <v>1.025508311082208</v>
       </c>
       <c r="D10">
-        <v>0.383386840494093</v>
+        <v>0.3123645780081572</v>
       </c>
       <c r="E10">
         <v>2.445984031525772</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>0.7613852647042137</v>
+        <v>1.34699599118755</v>
       </c>
       <c r="D11">
-        <v>0.4464626162167755</v>
+        <v>0.1868914601856302</v>
       </c>
       <c r="E11">
         <v>2.437242054279752</v>
